--- a/Code/Results/Cases/Case_5_189/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_189/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.21352733982603</v>
+        <v>11.73582396971045</v>
       </c>
       <c r="C2">
-        <v>7.00554077115503</v>
+        <v>8.198143628860628</v>
       </c>
       <c r="D2">
-        <v>5.277740887553696</v>
+        <v>5.742490069362258</v>
       </c>
       <c r="E2">
-        <v>7.783269541843092</v>
+        <v>11.71729909709081</v>
       </c>
       <c r="F2">
-        <v>19.59001478628078</v>
+        <v>27.40552900906781</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>15.77243282076046</v>
+        <v>24.69008135183563</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.81008611547042</v>
+        <v>9.102014730398251</v>
       </c>
       <c r="L2">
-        <v>6.891078289556066</v>
+        <v>9.757681587473192</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.14667353997492</v>
+        <v>24.62061181298066</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.27372096926173</v>
+        <v>11.44897535467174</v>
       </c>
       <c r="C3">
-        <v>6.912073599378974</v>
+        <v>8.169600342180345</v>
       </c>
       <c r="D3">
-        <v>5.137480936371396</v>
+        <v>5.69305807224514</v>
       </c>
       <c r="E3">
-        <v>7.673960657635435</v>
+        <v>11.73032061351807</v>
       </c>
       <c r="F3">
-        <v>19.36597907561906</v>
+        <v>27.4605122152918</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>15.92856877725969</v>
+        <v>24.78850513011825</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.15936318920015</v>
+        <v>8.895974339975714</v>
       </c>
       <c r="L3">
-        <v>6.682074714475782</v>
+        <v>9.742494873551111</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.18935326052108</v>
+        <v>24.70489543553914</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.66257694816838</v>
+        <v>11.27087887610328</v>
       </c>
       <c r="C4">
-        <v>6.854229674549146</v>
+        <v>8.151959755600826</v>
       </c>
       <c r="D4">
-        <v>5.048920754490932</v>
+        <v>5.662036351539757</v>
       </c>
       <c r="E4">
-        <v>7.610885405604464</v>
+        <v>11.74045278583213</v>
       </c>
       <c r="F4">
-        <v>19.24535842826289</v>
+        <v>27.50119698236927</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>16.03620169952494</v>
+        <v>24.85356120080131</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.73962044237597</v>
+        <v>8.768145275271289</v>
       </c>
       <c r="L4">
-        <v>6.553907507701645</v>
+        <v>9.734843055465978</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.22924500329118</v>
+        <v>24.76173537560008</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.40491774413066</v>
+        <v>11.19791374239924</v>
       </c>
       <c r="C5">
-        <v>6.830555245586363</v>
+        <v>8.144744233902859</v>
       </c>
       <c r="D5">
-        <v>5.012247556950832</v>
+        <v>5.649231290319371</v>
       </c>
       <c r="E5">
-        <v>7.586206068771902</v>
+        <v>11.74511918157891</v>
       </c>
       <c r="F5">
-        <v>19.20039271470283</v>
+        <v>27.51951383276444</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>16.08290484344922</v>
+        <v>24.88123389307233</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.56355951636044</v>
+        <v>8.715794003208801</v>
       </c>
       <c r="L5">
-        <v>6.501792081648787</v>
+        <v>9.732148133322765</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.24880729257692</v>
+        <v>24.78617573377926</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.3616123549477</v>
+        <v>11.18577761330035</v>
       </c>
       <c r="C6">
-        <v>6.826618282017886</v>
+        <v>8.143544540583811</v>
       </c>
       <c r="D6">
-        <v>5.00612362062739</v>
+        <v>5.647095297006776</v>
       </c>
       <c r="E6">
-        <v>7.582170137310018</v>
+        <v>11.74592649430654</v>
       </c>
       <c r="F6">
-        <v>19.19317681331121</v>
+        <v>27.5226601485653</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>16.090828220359</v>
+        <v>24.88589907042705</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.53402430259498</v>
+        <v>8.707087573488375</v>
       </c>
       <c r="L6">
-        <v>6.493147432303502</v>
+        <v>9.73172627735762</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.25225134030447</v>
+        <v>24.79031113731163</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.65913698901133</v>
+        <v>11.26989627568565</v>
       </c>
       <c r="C7">
-        <v>6.853910792341118</v>
+        <v>8.151862550526968</v>
       </c>
       <c r="D7">
-        <v>5.048428491814461</v>
+        <v>5.661864313086904</v>
       </c>
       <c r="E7">
-        <v>7.610548415064164</v>
+        <v>11.74051354230501</v>
       </c>
       <c r="F7">
-        <v>19.24473515067393</v>
+        <v>27.5014369803176</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>16.0368201971929</v>
+        <v>24.85392970130923</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.73726621699143</v>
+        <v>8.767440202934887</v>
       </c>
       <c r="L7">
-        <v>6.553204100968571</v>
+        <v>9.734804993839058</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.22949561894716</v>
+        <v>24.76205981669777</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.89653518992521</v>
+        <v>11.63738960603847</v>
       </c>
       <c r="C8">
-        <v>6.973414589360977</v>
+        <v>8.188326981283438</v>
       </c>
       <c r="D8">
-        <v>5.229902537885459</v>
+        <v>5.72558806095596</v>
       </c>
       <c r="E8">
-        <v>7.744746904199074</v>
+        <v>11.7213455068645</v>
       </c>
       <c r="F8">
-        <v>19.50921304752959</v>
+        <v>27.4230478174426</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>15.82375465713796</v>
+        <v>24.72305779157516</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.5899426938941</v>
+        <v>9.031288079031089</v>
       </c>
       <c r="L8">
-        <v>6.819022850905855</v>
+        <v>9.752099641275681</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.15846712513399</v>
+        <v>24.64861520939219</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.05440118221131</v>
+        <v>12.3380106980313</v>
       </c>
       <c r="C9">
-        <v>7.20366514842305</v>
+        <v>8.25883297269994</v>
       </c>
       <c r="D9">
-        <v>5.565249361374161</v>
+        <v>5.845013524147194</v>
       </c>
       <c r="E9">
-        <v>8.03949608527668</v>
+        <v>11.70070291672803</v>
       </c>
       <c r="F9">
-        <v>20.1647741560104</v>
+        <v>27.32442202873927</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>15.50483470575376</v>
+        <v>24.50313892265632</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.09976152935636</v>
+        <v>9.535221206957969</v>
       </c>
       <c r="L9">
-        <v>7.338595917466169</v>
+        <v>9.799162481231969</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.13387214487482</v>
+        <v>24.46662766829284</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.47880433796663</v>
+        <v>12.83505702715021</v>
       </c>
       <c r="C10">
-        <v>7.369729938118555</v>
+        <v>8.309906016622728</v>
       </c>
       <c r="D10">
-        <v>5.797738416118643</v>
+        <v>5.929095737029087</v>
       </c>
       <c r="E10">
-        <v>8.274548011481505</v>
+        <v>11.69584752845386</v>
       </c>
       <c r="F10">
-        <v>20.73248588615207</v>
+        <v>27.28572048647932</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>15.33894927085926</v>
+        <v>24.36399854537254</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.10841107647974</v>
+        <v>9.893472513480548</v>
       </c>
       <c r="L10">
-        <v>7.715684903574735</v>
+        <v>9.84157015799191</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.19407872120685</v>
+        <v>24.35772293067212</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.09249601110376</v>
+        <v>13.05629483247685</v>
       </c>
       <c r="C11">
-        <v>7.444491011312053</v>
+        <v>8.332957245999275</v>
       </c>
       <c r="D11">
-        <v>5.900244866453817</v>
+        <v>5.966493746375204</v>
       </c>
       <c r="E11">
-        <v>8.385310551442409</v>
+        <v>11.69587015974643</v>
       </c>
       <c r="F11">
-        <v>21.0097751575317</v>
+        <v>27.2754686214209</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>15.28024725614562</v>
+        <v>24.30558206826068</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.54530584841008</v>
+        <v>10.05312446611084</v>
       </c>
       <c r="L11">
-        <v>7.885581669240277</v>
+        <v>9.86251765950013</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.24024593090892</v>
+        <v>24.31359021063861</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.3200109305622</v>
+        <v>13.13929349360037</v>
       </c>
       <c r="C12">
-        <v>7.472680040163617</v>
+        <v>8.341657745441566</v>
       </c>
       <c r="D12">
-        <v>5.938576208490028</v>
+        <v>5.98052812393517</v>
       </c>
       <c r="E12">
-        <v>8.427788517518337</v>
+        <v>11.69619866660762</v>
       </c>
       <c r="F12">
-        <v>21.11752837389835</v>
+        <v>27.27264478405369</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>15.26059640418366</v>
+        <v>24.28416390671157</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.70759206235362</v>
+        <v>10.11304854139376</v>
       </c>
       <c r="L12">
-        <v>7.949635712496549</v>
+        <v>9.870683780162508</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.26057286370498</v>
+        <v>24.2976580381323</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.27122756550419</v>
+        <v>13.12145409337973</v>
       </c>
       <c r="C13">
-        <v>7.466614556469504</v>
+        <v>8.339785241600591</v>
       </c>
       <c r="D13">
-        <v>5.930342724594081</v>
+        <v>5.977511315825139</v>
       </c>
       <c r="E13">
-        <v>8.418616619438197</v>
+        <v>11.69611370416239</v>
       </c>
       <c r="F13">
-        <v>21.09419935608742</v>
+        <v>27.27320587227348</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>15.26471113179176</v>
+        <v>24.28874540940967</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.67278113102418</v>
+        <v>10.1001673489312</v>
       </c>
       <c r="L13">
-        <v>7.935853739764666</v>
+        <v>9.86891473615286</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.25606631800371</v>
+        <v>24.30105459524005</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.11131123247702</v>
+        <v>13.06313922928525</v>
       </c>
       <c r="C14">
-        <v>7.446812619174829</v>
+        <v>8.333673625762501</v>
       </c>
       <c r="D14">
-        <v>5.903408235149262</v>
+        <v>5.967650945332053</v>
       </c>
       <c r="E14">
-        <v>8.388794621834954</v>
+        <v>11.69589078013835</v>
       </c>
       <c r="F14">
-        <v>21.01858491896366</v>
+        <v>27.27521508973613</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>15.27857790336273</v>
+        <v>24.30380588892454</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.55872046734575</v>
+        <v>10.05806543410751</v>
       </c>
       <c r="L14">
-        <v>7.890857328972727</v>
+        <v>9.863184832366628</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.24186041604115</v>
+        <v>24.31226381810301</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.01272434183167</v>
+        <v>13.02731597378005</v>
       </c>
       <c r="C15">
-        <v>7.434667309711624</v>
+        <v>8.329926304354856</v>
       </c>
       <c r="D15">
-        <v>5.886846352641738</v>
+        <v>5.9615944411377</v>
       </c>
       <c r="E15">
-        <v>8.370596905744817</v>
+        <v>11.69579586738462</v>
       </c>
       <c r="F15">
-        <v>20.97262726582482</v>
+        <v>27.27658363228064</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>15.28741260432895</v>
+        <v>24.3131224425092</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.48844407931387</v>
+        <v>10.03220585237899</v>
       </c>
       <c r="L15">
-        <v>7.863257729035728</v>
+        <v>9.859705408305649</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.23353355697272</v>
+        <v>24.3192314238212</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.43801281903563</v>
+        <v>12.82049371165015</v>
       </c>
       <c r="C16">
-        <v>7.364827601504631</v>
+        <v>8.308395702084018</v>
       </c>
       <c r="D16">
-        <v>5.790972334835554</v>
+        <v>5.926634126053282</v>
       </c>
       <c r="E16">
-        <v>8.26738515234695</v>
+        <v>11.69589087462449</v>
       </c>
       <c r="F16">
-        <v>20.71474863236284</v>
+        <v>27.28653853487016</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>15.34313704231806</v>
+        <v>24.3679144893998</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.07941714650303</v>
+        <v>9.882967272160059</v>
       </c>
       <c r="L16">
-        <v>7.704544616138607</v>
+        <v>9.840234144951792</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.19145182229595</v>
+        <v>24.36071613118304</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.076703282669</v>
+        <v>12.69230921763508</v>
       </c>
       <c r="C17">
-        <v>7.321776174560007</v>
+        <v>8.295139081521505</v>
       </c>
       <c r="D17">
-        <v>5.731309988756895</v>
+        <v>5.904965440039645</v>
       </c>
       <c r="E17">
-        <v>8.205038470589438</v>
+        <v>11.6965200578225</v>
       </c>
       <c r="F17">
-        <v>20.56143476475569</v>
+        <v>27.29452983418524</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>15.381732026466</v>
+        <v>24.4027782100435</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.82286869494328</v>
+        <v>9.790523539726582</v>
       </c>
       <c r="L17">
-        <v>7.606723731866912</v>
+        <v>9.828710275913762</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.17054885616493</v>
+        <v>24.38755250920039</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.86565807752667</v>
+        <v>12.61812670288042</v>
       </c>
       <c r="C18">
-        <v>7.296940938511767</v>
+        <v>8.28749721729873</v>
       </c>
       <c r="D18">
-        <v>5.696688416947838</v>
+        <v>5.892422338246235</v>
       </c>
       <c r="E18">
-        <v>8.169540424734647</v>
+        <v>11.69709204121077</v>
       </c>
       <c r="F18">
-        <v>20.47504402781825</v>
+        <v>27.29981837048067</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>15.40549781298424</v>
+        <v>24.42329007452901</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.67324274475228</v>
+        <v>9.737043064677055</v>
       </c>
       <c r="L18">
-        <v>7.550307444382304</v>
+        <v>9.822238204709523</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.16028507613496</v>
+        <v>24.40349704181805</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.79364557255177</v>
+        <v>12.59293427916783</v>
       </c>
       <c r="C19">
-        <v>7.288519867533306</v>
+        <v>8.284906962644579</v>
       </c>
       <c r="D19">
-        <v>5.684914276878236</v>
+        <v>5.888161900185501</v>
       </c>
       <c r="E19">
-        <v>8.157584112034309</v>
+        <v>11.69732181435834</v>
       </c>
       <c r="F19">
-        <v>20.44610077836236</v>
+        <v>27.30172781794434</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>15.4138086328334</v>
+        <v>24.43031386457932</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.62222727188965</v>
+        <v>9.71888413286889</v>
       </c>
       <c r="L19">
-        <v>7.53118120685737</v>
+        <v>9.820073821143753</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.15710763547597</v>
+        <v>24.40898293250917</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.11549917157875</v>
+        <v>12.70600227370191</v>
       </c>
       <c r="C20">
-        <v>7.326366714701008</v>
+        <v>8.296552048234298</v>
       </c>
       <c r="D20">
-        <v>5.737692887225599</v>
+        <v>5.90728040911685</v>
       </c>
       <c r="E20">
-        <v>8.21163802778457</v>
+        <v>11.69643134248035</v>
       </c>
       <c r="F20">
-        <v>20.5775697780727</v>
+        <v>27.29360750303287</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>15.37746015539962</v>
+        <v>24.39901937545069</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.85039257554197</v>
+        <v>9.800396757698584</v>
       </c>
       <c r="L20">
-        <v>7.6171530480917</v>
+        <v>9.829920881023337</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.17259090768119</v>
+        <v>24.38464303959133</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.15841446460733</v>
+        <v>13.08028946478006</v>
       </c>
       <c r="C21">
-        <v>7.452632287576094</v>
+        <v>8.335469547405197</v>
       </c>
       <c r="D21">
-        <v>5.911332857339954</v>
+        <v>5.970550673059481</v>
       </c>
       <c r="E21">
-        <v>8.397539691131913</v>
+        <v>11.69594758360909</v>
       </c>
       <c r="F21">
-        <v>21.04072001318439</v>
+        <v>27.27459620778698</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>15.27443354126745</v>
+        <v>24.29936317458361</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.59230847873872</v>
+        <v>10.07044666477051</v>
       </c>
       <c r="L21">
-        <v>7.904081857318916</v>
+        <v>9.864861536144479</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.24595469973557</v>
+        <v>24.30895021364378</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.81161993284536</v>
+        <v>13.32033338800919</v>
       </c>
       <c r="C22">
-        <v>7.534443326996029</v>
+        <v>8.360737183977918</v>
       </c>
       <c r="D22">
-        <v>6.021979367874557</v>
+        <v>6.011156412622159</v>
       </c>
       <c r="E22">
-        <v>8.522145624926395</v>
+        <v>11.69749570257589</v>
       </c>
       <c r="F22">
-        <v>21.35944534041422</v>
+        <v>27.26833984885148</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>15.22221177843061</v>
+        <v>24.23832966848188</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.05880072928558</v>
+        <v>10.24381234995751</v>
       </c>
       <c r="L22">
-        <v>8.089945009536958</v>
+        <v>9.889057568427765</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.31054683569488</v>
+        <v>24.26402754985255</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.46557269074355</v>
+        <v>13.19266038036997</v>
       </c>
       <c r="C23">
-        <v>7.490846936379763</v>
+        <v>8.347267433234904</v>
       </c>
       <c r="D23">
-        <v>5.96319012497681</v>
+        <v>5.989554158180232</v>
       </c>
       <c r="E23">
-        <v>8.455362202020334</v>
+        <v>11.69649921248997</v>
       </c>
       <c r="F23">
-        <v>21.18786619876518</v>
+        <v>27.27111444672213</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>15.24864313391583</v>
+        <v>24.27052904732896</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.81150623137317</v>
+        <v>10.1515872524861</v>
       </c>
       <c r="L23">
-        <v>7.990911848886524</v>
+        <v>9.876020738770501</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.27450278637789</v>
+        <v>24.28758687792504</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.09796990620607</v>
+        <v>12.69981315557991</v>
       </c>
       <c r="C24">
-        <v>7.324291593699944</v>
+        <v>8.295913309532116</v>
       </c>
       <c r="D24">
-        <v>5.73480817697371</v>
+        <v>5.906234077481242</v>
       </c>
       <c r="E24">
-        <v>8.208653289299011</v>
+        <v>11.69647079569441</v>
       </c>
       <c r="F24">
-        <v>20.57026968419678</v>
+        <v>27.29402232653077</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>15.37938656890125</v>
+        <v>24.40071728609043</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.83795567226669</v>
+        <v>9.795934109879864</v>
       </c>
       <c r="L24">
-        <v>7.612438504342284</v>
+        <v>9.829373089068952</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.17166224501354</v>
+        <v>24.38595680382783</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.49912304306146</v>
+        <v>12.15120890833922</v>
       </c>
       <c r="C25">
-        <v>7.141879565417414</v>
+        <v>8.239878446320169</v>
       </c>
       <c r="D25">
-        <v>5.476878056197148</v>
+        <v>5.813328195577405</v>
       </c>
       <c r="E25">
-        <v>7.956448997139365</v>
+        <v>11.70447453801876</v>
       </c>
       <c r="F25">
-        <v>19.97245548509071</v>
+        <v>27.34518447720579</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>15.5797124236162</v>
+        <v>24.55869670598306</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.70891016694369</v>
+        <v>9.400740579616746</v>
       </c>
       <c r="L25">
-        <v>7.198613546143172</v>
+        <v>9.785041076537905</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.12738398940088</v>
+        <v>24.51151349514885</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_189/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_189/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.73582396971045</v>
+        <v>14.21352733982608</v>
       </c>
       <c r="C2">
-        <v>8.198143628860628</v>
+        <v>7.005540771155143</v>
       </c>
       <c r="D2">
-        <v>5.742490069362258</v>
+        <v>5.277740887553516</v>
       </c>
       <c r="E2">
-        <v>11.71729909709081</v>
+        <v>7.783269541843106</v>
       </c>
       <c r="F2">
-        <v>27.40552900906781</v>
+        <v>19.59001478628078</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>24.69008135183563</v>
+        <v>15.77243282076044</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.102014730398251</v>
+        <v>11.81008611547051</v>
       </c>
       <c r="L2">
-        <v>9.757681587473192</v>
+        <v>6.891078289556063</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.62061181298066</v>
+        <v>16.14667353997483</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.44897535467174</v>
+        <v>13.27372096926172</v>
       </c>
       <c r="C3">
-        <v>8.169600342180345</v>
+        <v>6.912073599378847</v>
       </c>
       <c r="D3">
-        <v>5.69305807224514</v>
+        <v>5.137480936371559</v>
       </c>
       <c r="E3">
-        <v>11.73032061351807</v>
+        <v>7.673960657635302</v>
       </c>
       <c r="F3">
-        <v>27.4605122152918</v>
+        <v>19.36597907561912</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>24.78850513011825</v>
+        <v>15.92856877725982</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.895974339975714</v>
+        <v>11.15936318920011</v>
       </c>
       <c r="L3">
-        <v>9.742494873551111</v>
+        <v>6.682074714475704</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.70489543553914</v>
+        <v>16.18935326052124</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.27087887610328</v>
+        <v>12.66257694816842</v>
       </c>
       <c r="C4">
-        <v>8.151959755600826</v>
+        <v>6.854229674549147</v>
       </c>
       <c r="D4">
-        <v>5.662036351539757</v>
+        <v>5.048920754490913</v>
       </c>
       <c r="E4">
-        <v>11.74045278583213</v>
+        <v>7.610885405604469</v>
       </c>
       <c r="F4">
-        <v>27.50119698236927</v>
+        <v>19.2453584282628</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>24.85356120080131</v>
+        <v>16.03620169952486</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.768145275271289</v>
+        <v>10.73962044237599</v>
       </c>
       <c r="L4">
-        <v>9.734843055465978</v>
+        <v>6.553907507701625</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.76173537560008</v>
+        <v>16.22924500329111</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.19791374239924</v>
+        <v>12.40491774413077</v>
       </c>
       <c r="C5">
-        <v>8.144744233902859</v>
+        <v>6.830555245586205</v>
       </c>
       <c r="D5">
-        <v>5.649231290319371</v>
+        <v>5.012247556950963</v>
       </c>
       <c r="E5">
-        <v>11.74511918157891</v>
+        <v>7.58620606877188</v>
       </c>
       <c r="F5">
-        <v>27.51951383276444</v>
+        <v>19.20039271470276</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>24.88123389307233</v>
+        <v>16.08290484344912</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.715794003208801</v>
+        <v>10.56355951636043</v>
       </c>
       <c r="L5">
-        <v>9.732148133322765</v>
+        <v>6.501792081648841</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.78617573377926</v>
+        <v>16.2488072925769</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.18577761330035</v>
+        <v>12.36161235494765</v>
       </c>
       <c r="C6">
-        <v>8.143544540583811</v>
+        <v>6.826618282018003</v>
       </c>
       <c r="D6">
-        <v>5.647095297006776</v>
+        <v>5.006123620627568</v>
       </c>
       <c r="E6">
-        <v>11.74592649430654</v>
+        <v>7.582170137310025</v>
       </c>
       <c r="F6">
-        <v>27.5226601485653</v>
+        <v>19.19317681331117</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>24.88589907042705</v>
+        <v>16.09082822035909</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.707087573488375</v>
+        <v>10.53402430259499</v>
       </c>
       <c r="L6">
-        <v>9.73172627735762</v>
+        <v>6.493147432303495</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.79031113731163</v>
+        <v>16.25225134030449</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.26989627568565</v>
+        <v>12.65913698901133</v>
       </c>
       <c r="C7">
-        <v>8.151862550526968</v>
+        <v>6.853910792341103</v>
       </c>
       <c r="D7">
-        <v>5.661864313086904</v>
+        <v>5.048428491814512</v>
       </c>
       <c r="E7">
-        <v>11.74051354230501</v>
+        <v>7.610548415064208</v>
       </c>
       <c r="F7">
-        <v>27.5014369803176</v>
+        <v>19.24473515067393</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>24.85392970130923</v>
+        <v>16.03682019719296</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.767440202934887</v>
+        <v>10.73726621699144</v>
       </c>
       <c r="L7">
-        <v>9.734804993839058</v>
+        <v>6.553204100968602</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.76205981669777</v>
+        <v>16.22949561894719</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.63738960603847</v>
+        <v>13.89653518992519</v>
       </c>
       <c r="C8">
-        <v>8.188326981283438</v>
+        <v>6.973414589361241</v>
       </c>
       <c r="D8">
-        <v>5.72558806095596</v>
+        <v>5.229902537885457</v>
       </c>
       <c r="E8">
-        <v>11.7213455068645</v>
+        <v>7.744746904199157</v>
       </c>
       <c r="F8">
-        <v>27.4230478174426</v>
+        <v>19.50921304752943</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>24.72305779157516</v>
+        <v>15.82375465713794</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.031288079031089</v>
+        <v>11.58994269389416</v>
       </c>
       <c r="L8">
-        <v>9.752099641275681</v>
+        <v>6.819022850905855</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.64861520939219</v>
+        <v>16.15846712513386</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.3380106980313</v>
+        <v>16.05440118221133</v>
       </c>
       <c r="C9">
-        <v>8.25883297269994</v>
+        <v>7.203665148423148</v>
       </c>
       <c r="D9">
-        <v>5.845013524147194</v>
+        <v>5.565249361374172</v>
       </c>
       <c r="E9">
-        <v>11.70070291672803</v>
+        <v>8.039496085276719</v>
       </c>
       <c r="F9">
-        <v>27.32442202873927</v>
+        <v>20.16477415601029</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>24.50313892265632</v>
+        <v>15.50483470575369</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.535221206957969</v>
+        <v>13.09976152935637</v>
       </c>
       <c r="L9">
-        <v>9.799162481231969</v>
+        <v>7.338595917466149</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.46662766829284</v>
+        <v>16.1338721448747</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.83505702715021</v>
+        <v>17.47880433796669</v>
       </c>
       <c r="C10">
-        <v>8.309906016622728</v>
+        <v>7.36972993811843</v>
       </c>
       <c r="D10">
-        <v>5.929095737029087</v>
+        <v>5.797738416118632</v>
       </c>
       <c r="E10">
-        <v>11.69584752845386</v>
+        <v>8.274548011481471</v>
       </c>
       <c r="F10">
-        <v>27.28572048647932</v>
+        <v>20.73248588615212</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>24.36399854537254</v>
+        <v>15.33894927085933</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.893472513480548</v>
+        <v>14.10841107647978</v>
       </c>
       <c r="L10">
-        <v>9.84157015799191</v>
+        <v>7.715684903574727</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.35772293067212</v>
+        <v>16.19407872120689</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.05629483247685</v>
+        <v>18.09249601110382</v>
       </c>
       <c r="C11">
-        <v>8.332957245999275</v>
+        <v>7.444491011311806</v>
       </c>
       <c r="D11">
-        <v>5.966493746375204</v>
+        <v>5.900244866453805</v>
       </c>
       <c r="E11">
-        <v>11.69587015974643</v>
+        <v>8.385310551442375</v>
       </c>
       <c r="F11">
-        <v>27.2754686214209</v>
+        <v>21.00977515753163</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>24.30558206826068</v>
+        <v>15.2802472561455</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.05312446611084</v>
+        <v>14.54530584841012</v>
       </c>
       <c r="L11">
-        <v>9.86251765950013</v>
+        <v>7.885581669240259</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.31359021063861</v>
+        <v>16.24024593090884</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.13929349360037</v>
+        <v>18.3200109305622</v>
       </c>
       <c r="C12">
-        <v>8.341657745441566</v>
+        <v>7.472680040163833</v>
       </c>
       <c r="D12">
-        <v>5.98052812393517</v>
+        <v>5.938576208490015</v>
       </c>
       <c r="E12">
-        <v>11.69619866660762</v>
+        <v>8.427788517518406</v>
       </c>
       <c r="F12">
-        <v>27.27264478405369</v>
+        <v>21.11752837389837</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>24.28416390671157</v>
+        <v>15.26059640418366</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.11304854139376</v>
+        <v>14.70759206235367</v>
       </c>
       <c r="L12">
-        <v>9.870683780162508</v>
+        <v>7.949635712496568</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.2976580381323</v>
+        <v>16.26057286370497</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.12145409337973</v>
+        <v>18.2712275655042</v>
       </c>
       <c r="C13">
-        <v>8.339785241600591</v>
+        <v>7.4666145564696</v>
       </c>
       <c r="D13">
-        <v>5.977511315825139</v>
+        <v>5.93034272459411</v>
       </c>
       <c r="E13">
-        <v>11.69611370416239</v>
+        <v>8.418616619438197</v>
       </c>
       <c r="F13">
-        <v>27.27320587227348</v>
+        <v>21.09419935608748</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>24.28874540940967</v>
+        <v>15.26471113179187</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.1001673489312</v>
+        <v>14.67278113102418</v>
       </c>
       <c r="L13">
-        <v>9.86891473615286</v>
+        <v>7.935853739764627</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.30105459524005</v>
+        <v>16.25606631800379</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.06313922928525</v>
+        <v>18.111311232477</v>
       </c>
       <c r="C14">
-        <v>8.333673625762501</v>
+        <v>7.446812619175026</v>
       </c>
       <c r="D14">
-        <v>5.967650945332053</v>
+        <v>5.90340823514925</v>
       </c>
       <c r="E14">
-        <v>11.69589078013835</v>
+        <v>8.388794621834931</v>
       </c>
       <c r="F14">
-        <v>27.27521508973613</v>
+        <v>21.0185849189637</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>24.30380588892454</v>
+        <v>15.27857790336281</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.05806543410751</v>
+        <v>14.55872046734575</v>
       </c>
       <c r="L14">
-        <v>9.863184832366628</v>
+        <v>7.890857328972708</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.31226381810301</v>
+        <v>16.2418604160412</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.02731597378005</v>
+        <v>18.01272434183169</v>
       </c>
       <c r="C15">
-        <v>8.329926304354856</v>
+        <v>7.434667309711473</v>
       </c>
       <c r="D15">
-        <v>5.9615944411377</v>
+        <v>5.886846352641734</v>
       </c>
       <c r="E15">
-        <v>11.69579586738462</v>
+        <v>8.370596905744828</v>
       </c>
       <c r="F15">
-        <v>27.27658363228064</v>
+        <v>20.97262726582483</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>24.3131224425092</v>
+        <v>15.28741260432894</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.03220585237899</v>
+        <v>14.4884440793139</v>
       </c>
       <c r="L15">
-        <v>9.859705408305649</v>
+        <v>7.863257729035709</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.3192314238212</v>
+        <v>16.23353355697271</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.82049371165015</v>
+        <v>17.4380128190357</v>
       </c>
       <c r="C16">
-        <v>8.308395702084018</v>
+        <v>7.364827601504621</v>
       </c>
       <c r="D16">
-        <v>5.926634126053282</v>
+        <v>5.790972334835549</v>
       </c>
       <c r="E16">
-        <v>11.69589087462449</v>
+        <v>8.267385152346998</v>
       </c>
       <c r="F16">
-        <v>27.28653853487016</v>
+        <v>20.7147486323626</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>24.3679144893998</v>
+        <v>15.34313704231776</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.882967272160059</v>
+        <v>14.07941714650311</v>
       </c>
       <c r="L16">
-        <v>9.840234144951792</v>
+        <v>7.704544616138645</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.36071613118304</v>
+        <v>16.19145182229562</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.69230921763508</v>
+        <v>17.07670328266904</v>
       </c>
       <c r="C17">
-        <v>8.295139081521505</v>
+        <v>7.321776174560005</v>
       </c>
       <c r="D17">
-        <v>5.904965440039645</v>
+        <v>5.731309988756889</v>
       </c>
       <c r="E17">
-        <v>11.6965200578225</v>
+        <v>8.205038470589438</v>
       </c>
       <c r="F17">
-        <v>27.29452983418524</v>
+        <v>20.56143476475561</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>24.4027782100435</v>
+        <v>15.38173202646587</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.790523539726582</v>
+        <v>13.82286869494332</v>
       </c>
       <c r="L17">
-        <v>9.828710275913762</v>
+        <v>7.606723731866899</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.38755250920039</v>
+        <v>16.17054885616483</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.61812670288042</v>
+        <v>16.86565807752672</v>
       </c>
       <c r="C18">
-        <v>8.28749721729873</v>
+        <v>7.296940938511637</v>
       </c>
       <c r="D18">
-        <v>5.892422338246235</v>
+        <v>5.696688416947838</v>
       </c>
       <c r="E18">
-        <v>11.69709204121077</v>
+        <v>8.169540424734659</v>
       </c>
       <c r="F18">
-        <v>27.29981837048067</v>
+        <v>20.47504402781823</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>24.42329007452901</v>
+        <v>15.4054978129842</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.737043064677055</v>
+        <v>13.67324274475231</v>
       </c>
       <c r="L18">
-        <v>9.822238204709523</v>
+        <v>7.550307444382343</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.40349704181805</v>
+        <v>16.16028507613495</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.59293427916783</v>
+        <v>16.79364557255182</v>
       </c>
       <c r="C19">
-        <v>8.284906962644579</v>
+        <v>7.28851986753343</v>
       </c>
       <c r="D19">
-        <v>5.888161900185501</v>
+        <v>5.684914276878237</v>
       </c>
       <c r="E19">
-        <v>11.69732181435834</v>
+        <v>8.157584112034364</v>
       </c>
       <c r="F19">
-        <v>27.30172781794434</v>
+        <v>20.4461007783623</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>24.43031386457932</v>
+        <v>15.41380863283333</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.71888413286889</v>
+        <v>13.6222272718897</v>
       </c>
       <c r="L19">
-        <v>9.820073821143753</v>
+        <v>7.5311812068574</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.40898293250917</v>
+        <v>16.15710763547589</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.70600227370191</v>
+        <v>17.11549917157878</v>
       </c>
       <c r="C20">
-        <v>8.296552048234298</v>
+        <v>7.326366714700876</v>
       </c>
       <c r="D20">
-        <v>5.90728040911685</v>
+        <v>5.737692887225553</v>
       </c>
       <c r="E20">
-        <v>11.69643134248035</v>
+        <v>8.211638027784502</v>
       </c>
       <c r="F20">
-        <v>27.29360750303287</v>
+        <v>20.57756977807275</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>24.39901937545069</v>
+        <v>15.37746015539962</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.800396757698584</v>
+        <v>13.85039257554197</v>
       </c>
       <c r="L20">
-        <v>9.829920881023337</v>
+        <v>7.617153048091668</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.38464303959133</v>
+        <v>16.17259090768122</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.08028946478006</v>
+        <v>18.15841446460734</v>
       </c>
       <c r="C21">
-        <v>8.335469547405197</v>
+        <v>7.452632287576094</v>
       </c>
       <c r="D21">
-        <v>5.970550673059481</v>
+        <v>5.911332857339844</v>
       </c>
       <c r="E21">
-        <v>11.69594758360909</v>
+        <v>8.397539691132025</v>
       </c>
       <c r="F21">
-        <v>27.27459620778698</v>
+        <v>21.04072001318449</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>24.29936317458361</v>
+        <v>15.27443354126756</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.07044666477051</v>
+        <v>14.59230847873874</v>
       </c>
       <c r="L21">
-        <v>9.864861536144479</v>
+        <v>7.904081857318968</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.30895021364378</v>
+        <v>16.24595469973567</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.32033338800919</v>
+        <v>18.81161993284541</v>
       </c>
       <c r="C22">
-        <v>8.360737183977918</v>
+        <v>7.534443326996029</v>
       </c>
       <c r="D22">
-        <v>6.011156412622159</v>
+        <v>6.021979367874462</v>
       </c>
       <c r="E22">
-        <v>11.69749570257589</v>
+        <v>8.52214562492636</v>
       </c>
       <c r="F22">
-        <v>27.26833984885148</v>
+        <v>21.35944534041413</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>24.23832966848188</v>
+        <v>15.2222117784305</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.24381234995751</v>
+        <v>15.05880072928563</v>
       </c>
       <c r="L22">
-        <v>9.889057568427765</v>
+        <v>8.089945009536937</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.26402754985255</v>
+        <v>16.31054683569477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.19266038036997</v>
+        <v>18.46557269074351</v>
       </c>
       <c r="C23">
-        <v>8.347267433234904</v>
+        <v>7.490846936379754</v>
       </c>
       <c r="D23">
-        <v>5.989554158180232</v>
+        <v>5.963190124976992</v>
       </c>
       <c r="E23">
-        <v>11.69649921248997</v>
+        <v>8.455362202020357</v>
       </c>
       <c r="F23">
-        <v>27.27111444672213</v>
+        <v>21.18786619876524</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>24.27052904732896</v>
+        <v>15.248643133916</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.1515872524861</v>
+        <v>14.81150623137316</v>
       </c>
       <c r="L23">
-        <v>9.876020738770501</v>
+        <v>7.990911848886527</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.28758687792504</v>
+        <v>16.274502786378</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.69981315557991</v>
+        <v>17.0979699062061</v>
       </c>
       <c r="C24">
-        <v>8.295913309532116</v>
+        <v>7.324291593699943</v>
       </c>
       <c r="D24">
-        <v>5.906234077481242</v>
+        <v>5.734808176973698</v>
       </c>
       <c r="E24">
-        <v>11.69647079569441</v>
+        <v>8.208653289299011</v>
       </c>
       <c r="F24">
-        <v>27.29402232653077</v>
+        <v>20.57026968419672</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>24.40071728609043</v>
+        <v>15.37938656890117</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.795934109879864</v>
+        <v>13.8379556722667</v>
       </c>
       <c r="L24">
-        <v>9.829373089068952</v>
+        <v>7.612438504342303</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.38595680382783</v>
+        <v>16.17166224501347</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.15120890833922</v>
+        <v>15.49912304306151</v>
       </c>
       <c r="C25">
-        <v>8.239878446320169</v>
+        <v>7.141879565417398</v>
       </c>
       <c r="D25">
-        <v>5.813328195577405</v>
+        <v>5.476878056197033</v>
       </c>
       <c r="E25">
-        <v>11.70447453801876</v>
+        <v>7.95644899713937</v>
       </c>
       <c r="F25">
-        <v>27.34518447720579</v>
+        <v>19.97245548509068</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>24.55869670598306</v>
+        <v>15.57971242361613</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.400740579616746</v>
+        <v>12.70891016694372</v>
       </c>
       <c r="L25">
-        <v>9.785041076537905</v>
+        <v>7.198613546143175</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.51151349514885</v>
+        <v>16.12738398940082</v>
       </c>
     </row>
   </sheetData>
